--- a/Scrum sheet.xlsx
+++ b/Scrum sheet.xlsx
@@ -126,9 +126,6 @@
     <t>C. Currie/K.Kauffman/D.coe/B.Keeler</t>
   </si>
   <si>
-    <t>See OWNER column</t>
-  </si>
-  <si>
     <t>Also Attending</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Create  strategy and business plan for board/NAH</t>
+  </si>
+  <si>
+    <t>See OWNER columnww</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
